--- a/Code/Results/Cases/Case_2_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.0507739993515</v>
+        <v>15.62169031819198</v>
       </c>
       <c r="C2">
-        <v>21.56361782277975</v>
+        <v>12.59394899082903</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.465595523615715</v>
+        <v>9.62753802310408</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.042691679079228</v>
+        <v>3.639338297477192</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.63166521432587</v>
+        <v>23.69129317225615</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.03217903281854</v>
+        <v>16.48787687408263</v>
       </c>
       <c r="N2">
-        <v>11.8064078938166</v>
+        <v>17.96594314222329</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.30416182426126</v>
+        <v>15.02176847277573</v>
       </c>
       <c r="C3">
-        <v>19.96496709491199</v>
+        <v>11.93515176590816</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.939845313371695</v>
+        <v>9.540505812403776</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.055349680508233</v>
+        <v>3.643554000904162</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.95110562218856</v>
+        <v>23.63126395042023</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.59101821533172</v>
+        <v>16.1988686286642</v>
       </c>
       <c r="N3">
-        <v>12.07798094025326</v>
+        <v>18.03568555176137</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.18038748549043</v>
+        <v>14.64605423773752</v>
       </c>
       <c r="C4">
-        <v>18.93982437778807</v>
+        <v>11.51559996041644</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.613749271925988</v>
+        <v>9.489677000107603</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.0632477969175</v>
+        <v>3.646272119687463</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.55371820306627</v>
+        <v>23.60164956058836</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.66529474123847</v>
+        <v>16.02424758217619</v>
       </c>
       <c r="N4">
-        <v>12.24845205685689</v>
+        <v>18.08051894385994</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.70924186231483</v>
+        <v>14.49136409714109</v>
       </c>
       <c r="C5">
-        <v>18.51082020171844</v>
+        <v>11.34107791868113</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.480108545627441</v>
+        <v>9.469637546380721</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.066502345524617</v>
+        <v>3.647412518505437</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.39680052112066</v>
+        <v>23.59140080532088</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.2775233573316</v>
+        <v>15.95389819029981</v>
       </c>
       <c r="N5">
-        <v>12.31885994925849</v>
+        <v>18.09929518207692</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.63020342042108</v>
+        <v>14.46559058842338</v>
       </c>
       <c r="C6">
-        <v>18.43889684930675</v>
+        <v>11.3118917508655</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.457874882366047</v>
+        <v>9.466351183665045</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.06704505327689</v>
+        <v>3.647603862561392</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.37104407487954</v>
+        <v>23.58980878528501</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.21249093385968</v>
+        <v>15.94226850364396</v>
       </c>
       <c r="N6">
-        <v>12.33060805838112</v>
+        <v>18.10244355506729</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.17408725244572</v>
+        <v>14.6439740720692</v>
       </c>
       <c r="C7">
-        <v>18.93408459757554</v>
+        <v>11.51326033793285</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.61194987713381</v>
+        <v>9.489403991138836</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323726</v>
       </c>
       <c r="G7">
-        <v>2.063291537737662</v>
+        <v>3.646287366742223</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.55158179140836</v>
+        <v>23.60150398024161</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.66010809140563</v>
+        <v>16.02329541661462</v>
       </c>
       <c r="N7">
-        <v>12.24939779032402</v>
+        <v>18.08077011619107</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.45901847935236</v>
+        <v>15.41651706410171</v>
       </c>
       <c r="C8">
-        <v>21.02125690707662</v>
+        <v>12.37004662727982</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.285029440202132</v>
+        <v>9.596998744276943</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344765</v>
       </c>
       <c r="G8">
-        <v>2.047032725749398</v>
+        <v>3.640765045233453</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.39267681192343</v>
+        <v>23.66909099573003</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.54357973044186</v>
+        <v>16.38769836366198</v>
       </c>
       <c r="N8">
-        <v>11.89927340239543</v>
+        <v>17.98957319549417</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.54678464370564</v>
+        <v>16.8626490080558</v>
       </c>
       <c r="C9">
-        <v>24.78370537395212</v>
+        <v>13.92242691862002</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.57783982583081</v>
+        <v>9.82785477807516</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.0027458068253</v>
       </c>
       <c r="G9">
-        <v>2.015929282347686</v>
+        <v>3.630958212891828</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.21136562474091</v>
+        <v>23.85910459670133</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.92611370249058</v>
+        <v>17.12042194314</v>
       </c>
       <c r="N9">
-        <v>11.2424582255245</v>
+        <v>17.82667013403235</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.3333627626532</v>
+        <v>17.87098504893731</v>
       </c>
       <c r="C10">
-        <v>27.37092468010677</v>
+        <v>14.9760436366061</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.63917411404839</v>
+        <v>10.00836224012229</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>1.993198229091746</v>
+        <v>3.624367494676913</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.66302968721424</v>
+        <v>24.03360754789213</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.24253151751465</v>
+        <v>17.66405249523809</v>
       </c>
       <c r="N10">
-        <v>10.77921060206105</v>
+        <v>17.7166629324714</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.56003539449252</v>
+        <v>18.31585227159218</v>
       </c>
       <c r="C11">
-        <v>28.5160352866336</v>
+        <v>15.43510796548865</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.13509188362484</v>
+        <v>10.09256754473292</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>1.982787505902084</v>
+        <v>3.621500690965345</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.35236902837421</v>
+        <v>24.12049616638838</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.26521234601544</v>
+        <v>17.91133220703642</v>
       </c>
       <c r="N11">
-        <v>10.57328472185364</v>
+        <v>17.66871218994819</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.01925319471584</v>
+        <v>18.48217773188955</v>
       </c>
       <c r="C12">
-        <v>28.94573925335482</v>
+        <v>15.60594697723754</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.32138307887278</v>
+        <v>10.12473021452458</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>1.978825446576684</v>
+        <v>3.620433845925582</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.61800725794088</v>
+        <v>24.15446805531381</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.64855562310789</v>
+        <v>18.00487311936127</v>
       </c>
       <c r="N12">
-        <v>10.49608865928493</v>
+        <v>17.65085497878833</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.92057748965277</v>
+        <v>18.4464537108219</v>
       </c>
       <c r="C13">
-        <v>28.85335775777391</v>
+        <v>15.56928834910186</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.28132348554975</v>
+        <v>10.11779153500606</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>1.979679797107042</v>
+        <v>3.62066277829235</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.5605845029985</v>
+        <v>24.1471042417087</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.56616065432664</v>
+        <v>17.98473327330362</v>
       </c>
       <c r="N13">
-        <v>10.51267746051693</v>
+        <v>17.65468747700918</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.59791792368672</v>
+        <v>18.32957955252415</v>
       </c>
       <c r="C14">
-        <v>28.55146180635787</v>
+        <v>15.44922354313729</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.15044640170008</v>
+        <v>10.09520820022357</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>1.982462001941392</v>
+        <v>3.621412545957985</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.37412813292021</v>
+        <v>24.12326969543458</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.2968254254631</v>
+        <v>17.91903038282107</v>
       </c>
       <c r="N14">
-        <v>10.5669173800489</v>
+        <v>17.66723704074014</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.39960911642957</v>
+        <v>18.25770853388747</v>
       </c>
       <c r="C15">
-        <v>28.36605199253549</v>
+        <v>15.37528750592183</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.07009442695406</v>
+        <v>10.08141044805311</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>1.98416329627602</v>
+        <v>3.621874238233836</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.2605322406139</v>
+        <v>24.10880922707011</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.13135651768071</v>
+        <v>17.87876986102504</v>
       </c>
       <c r="N15">
-        <v>10.60024635595665</v>
+        <v>17.67496316667962</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.2524212246492</v>
+        <v>17.84162058445389</v>
       </c>
       <c r="C16">
-        <v>27.29550183525003</v>
+        <v>14.94562754827087</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.60653731358036</v>
+        <v>10.00289920259239</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>1.993876393905163</v>
+        <v>3.624557478432792</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.61859723420884</v>
+        <v>24.0280793828675</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.17511623458189</v>
+        <v>17.64788351194566</v>
       </c>
       <c r="N16">
-        <v>10.79277211161127</v>
+        <v>17.7198387108644</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.53856175507234</v>
+        <v>17.58271070347613</v>
       </c>
       <c r="C17">
-        <v>26.63103277935678</v>
+        <v>14.67679402321719</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.31915340230563</v>
+        <v>9.955253297751357</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>1.99981071686795</v>
+        <v>3.626237103555924</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.232484923045</v>
+        <v>23.98047010516683</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.58089634413201</v>
+        <v>17.50616774024779</v>
       </c>
       <c r="N17">
-        <v>10.91216592371978</v>
+        <v>17.74790411837697</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.12407319797913</v>
+        <v>17.43249833450491</v>
       </c>
       <c r="C18">
-        <v>26.24580706060573</v>
+        <v>14.52026795214297</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.15266081713686</v>
+        <v>9.928047022972002</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.003218035146212</v>
+        <v>3.627215550652652</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.01309807159423</v>
+        <v>23.9537937979677</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.23615515768152</v>
+        <v>17.42466013684267</v>
       </c>
       <c r="N18">
-        <v>10.98128317295961</v>
+        <v>17.76424352121046</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.9830488857406</v>
+        <v>17.3814215360375</v>
       </c>
       <c r="C19">
-        <v>26.11483586741384</v>
+        <v>14.46694758147562</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.0960754934049</v>
+        <v>9.918870267420141</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.004370940559935</v>
+        <v>3.627548964935105</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.93926886575318</v>
+        <v>23.94488341695276</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.11890788000781</v>
+        <v>17.39706664923523</v>
       </c>
       <c r="N19">
-        <v>11.00475932097484</v>
+        <v>17.7698095890717</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.61495248607869</v>
+        <v>17.61040718304453</v>
       </c>
       <c r="C20">
-        <v>26.70207696476166</v>
+        <v>14.70560917162223</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.34986780740788</v>
+        <v>9.960304931359424</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.2495528364879</v>
       </c>
       <c r="G20">
-        <v>1.999179678182311</v>
+        <v>3.626057025214379</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.27330555986017</v>
+        <v>23.98546506049783</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.644454921057</v>
+        <v>17.52125396231816</v>
       </c>
       <c r="N20">
-        <v>10.8994096363645</v>
+        <v>17.74489612829501</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.69282939281379</v>
+        <v>18.36396737650603</v>
       </c>
       <c r="C21">
-        <v>28.64023671769871</v>
+        <v>15.48457149812819</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.18892633092781</v>
+        <v>10.10183418387652</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470567</v>
       </c>
       <c r="G21">
-        <v>1.981645422158189</v>
+        <v>3.621191813200313</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.42876597985109</v>
+        <v>24.13024155845835</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.37603741244486</v>
+        <v>17.93833233133569</v>
       </c>
       <c r="N21">
-        <v>10.5509636004815</v>
+        <v>17.66354276981352</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.02032037378078</v>
+        <v>18.84395677884638</v>
       </c>
       <c r="C22">
-        <v>29.88445001264208</v>
+        <v>15.97615988710617</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.72872054855947</v>
+        <v>10.19592838863483</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901555</v>
       </c>
       <c r="G22">
-        <v>1.970064897159695</v>
+        <v>3.618121349676367</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.21103414051514</v>
+        <v>24.23108637616426</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>27.48517840926399</v>
+        <v>18.21030127448633</v>
       </c>
       <c r="N22">
-        <v>10.32787560842658</v>
+        <v>17.61212629172613</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.31438355044007</v>
+        <v>18.58896538599786</v>
       </c>
       <c r="C23">
-        <v>29.22220115061363</v>
+        <v>15.71541716344802</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.44129560956823</v>
+        <v>10.14557074975465</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475864</v>
       </c>
       <c r="G23">
-        <v>1.976260354708996</v>
+        <v>3.619750163947109</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.79086636355786</v>
+        <v>24.17669796714421</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.89506755320302</v>
+        <v>18.06523322821621</v>
       </c>
       <c r="N23">
-        <v>10.44647560355891</v>
+        <v>17.63940790170263</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.58042899206638</v>
+        <v>17.59788983441378</v>
       </c>
       <c r="C24">
-        <v>26.66996794573378</v>
+        <v>14.69258797247464</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.33598580755849</v>
+        <v>9.95802050660906</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905294</v>
       </c>
       <c r="G24">
-        <v>1.999464983785006</v>
+        <v>3.626138398727343</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.25484250061469</v>
+        <v>23.98320467597248</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.61572983453985</v>
+        <v>17.51443357780439</v>
       </c>
       <c r="N24">
-        <v>10.90517527726527</v>
+        <v>17.74625540448077</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.48082035131847</v>
+        <v>16.48015252221285</v>
       </c>
       <c r="C25">
-        <v>23.79892765666736</v>
+        <v>13.51718590269832</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.23097593842833</v>
+        <v>9.763396412722928</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295697</v>
       </c>
       <c r="G25">
-        <v>2.024293678667367</v>
+        <v>3.633502687565202</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.70014463300586</v>
+        <v>23.80155320932546</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.04234823892768</v>
+        <v>16.92085988271535</v>
       </c>
       <c r="N25">
-        <v>11.41688960891047</v>
+        <v>17.86903778332354</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_242/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_242/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.62169031819198</v>
+        <v>24.05077399935143</v>
       </c>
       <c r="C2">
-        <v>12.59394899082903</v>
+        <v>21.56361782277981</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.62753802310408</v>
+        <v>9.465595523615702</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.639338297477192</v>
+        <v>2.042691679079227</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.69129317225615</v>
+        <v>20.63166521432592</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.48787687408263</v>
+        <v>20.03217903281852</v>
       </c>
       <c r="N2">
-        <v>17.96594314222329</v>
+        <v>11.80640789381664</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.02176847277573</v>
+        <v>22.30416182426145</v>
       </c>
       <c r="C3">
-        <v>11.93515176590816</v>
+        <v>19.96496709491193</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.540505812403776</v>
+        <v>8.939845313371698</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.643554000904162</v>
+        <v>2.055349680508369</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.63126395042023</v>
+        <v>19.95110562218852</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.1988686286642</v>
+        <v>18.5910182153318</v>
       </c>
       <c r="N3">
-        <v>18.03568555176137</v>
+        <v>12.07798094025322</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.64605423773752</v>
+        <v>21.18038748549037</v>
       </c>
       <c r="C4">
-        <v>11.51559996041644</v>
+        <v>18.93982437778803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.489677000107603</v>
+        <v>8.613749271925924</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.646272119687463</v>
+        <v>2.063247796917502</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.60164956058836</v>
+        <v>19.5537182030664</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.02424758217619</v>
+        <v>17.66529474123842</v>
       </c>
       <c r="N4">
-        <v>18.08051894385994</v>
+        <v>12.24845205685692</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.49136409714109</v>
+        <v>20.70924186231483</v>
       </c>
       <c r="C5">
-        <v>11.34107791868113</v>
+        <v>18.5108202017184</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.469637546380721</v>
+        <v>8.480108545627427</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.647412518505437</v>
+        <v>2.066502345524483</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.59140080532088</v>
+        <v>19.3968005211207</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.95389819029981</v>
+        <v>17.27752335733161</v>
       </c>
       <c r="N5">
-        <v>18.09929518207692</v>
+        <v>12.31885994925853</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.46559058842338</v>
+        <v>20.6302034204211</v>
       </c>
       <c r="C6">
-        <v>11.3118917508655</v>
+        <v>18.4388968493068</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.466351183665045</v>
+        <v>8.457874882366049</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.647603862561392</v>
+        <v>2.067045053276755</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.58980878528501</v>
+        <v>19.37104407487949</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.94226850364396</v>
+        <v>17.21249093385971</v>
       </c>
       <c r="N6">
-        <v>18.10244355506729</v>
+        <v>12.33060805838109</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.6439740720692</v>
+        <v>21.17408725244569</v>
       </c>
       <c r="C7">
-        <v>11.51326033793285</v>
+        <v>18.9340845975755</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.489403991138836</v>
+        <v>8.611949877133785</v>
       </c>
       <c r="F7">
-        <v>15.26647399323726</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.646287366742223</v>
+        <v>2.063291537737665</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.60150398024161</v>
+        <v>19.55158179140845</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.02329541661462</v>
+        <v>17.66010809140557</v>
       </c>
       <c r="N7">
-        <v>18.08077011619107</v>
+        <v>12.24939779032415</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.41651706410171</v>
+        <v>23.4590184793523</v>
       </c>
       <c r="C8">
-        <v>12.37004662727982</v>
+        <v>21.02125690707662</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.596998744276943</v>
+        <v>9.285029440202138</v>
       </c>
       <c r="F8">
-        <v>16.53996406344765</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.640765045233453</v>
+        <v>2.047032725749263</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.66909099573003</v>
+        <v>20.39267681192349</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.38769836366198</v>
+        <v>19.54357973044185</v>
       </c>
       <c r="N8">
-        <v>17.98957319549417</v>
+        <v>11.89927340239547</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.8626490080558</v>
+        <v>27.54678464370575</v>
       </c>
       <c r="C9">
-        <v>13.92242691862002</v>
+        <v>24.78370537395224</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.82785477807516</v>
+        <v>10.57783982583081</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.630958212891828</v>
+        <v>2.015929282347694</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>23.85910459670133</v>
+        <v>22.21136562474101</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.12042194314</v>
+        <v>22.92611370249066</v>
       </c>
       <c r="N9">
-        <v>17.82667013403235</v>
+        <v>11.24245822552447</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.87098504893731</v>
+        <v>30.33336276265326</v>
       </c>
       <c r="C10">
-        <v>14.9760436366061</v>
+        <v>27.37092468010687</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.00836224012229</v>
+        <v>11.63917411404835</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.624367494676913</v>
+        <v>1.993198229091886</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.03360754789213</v>
+        <v>23.66302968721426</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.66405249523809</v>
+        <v>25.24253151751465</v>
       </c>
       <c r="N10">
-        <v>17.7166629324714</v>
+        <v>10.779210602061</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.31585227159218</v>
+        <v>31.56003539449247</v>
       </c>
       <c r="C11">
-        <v>15.43510796548865</v>
+        <v>28.51603528663363</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.09256754473292</v>
+        <v>12.13509188362481</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.621500690965345</v>
+        <v>1.982787505901949</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.12049616638838</v>
+        <v>24.35236902837428</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.91133220703642</v>
+        <v>26.26521234601543</v>
       </c>
       <c r="N11">
-        <v>17.66871218994819</v>
+        <v>10.57328472185366</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.48217773188955</v>
+        <v>32.01925319471587</v>
       </c>
       <c r="C12">
-        <v>15.60594697723754</v>
+        <v>28.94573925335489</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.12473021452458</v>
+        <v>12.32138307887275</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.620433845925582</v>
+        <v>1.978825446576817</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.15446805531381</v>
+        <v>24.61800725794102</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.00487311936127</v>
+        <v>26.6485556231079</v>
       </c>
       <c r="N12">
-        <v>17.65085497878833</v>
+        <v>10.49608865928499</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.4464537108219</v>
+        <v>31.92057748965265</v>
       </c>
       <c r="C13">
-        <v>15.56928834910186</v>
+        <v>28.8533577577737</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.11779153500606</v>
+        <v>12.2813234855497</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.62066277829235</v>
+        <v>1.979679797106778</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.1471042417087</v>
+        <v>24.56058450299844</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.98473327330362</v>
+        <v>26.56616065432655</v>
       </c>
       <c r="N13">
-        <v>17.65468747700918</v>
+        <v>10.51267746051702</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.32957955252415</v>
+        <v>31.59791792368667</v>
       </c>
       <c r="C14">
-        <v>15.44922354313729</v>
+        <v>28.55146180635781</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.09520820022357</v>
+        <v>12.15044640170007</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.621412545957985</v>
+        <v>1.982462001941655</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.12326969543458</v>
+        <v>24.37412813292026</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.91903038282107</v>
+        <v>26.29682542546307</v>
       </c>
       <c r="N14">
-        <v>17.66723704074014</v>
+        <v>10.56691738004894</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.25770853388747</v>
+        <v>31.39960911642961</v>
       </c>
       <c r="C15">
-        <v>15.37528750592183</v>
+        <v>28.36605199253534</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.08141044805311</v>
+        <v>12.07009442695405</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.621874238233836</v>
+        <v>1.984163296275889</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.10880922707011</v>
+        <v>24.26053224061394</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.87876986102504</v>
+        <v>26.1313565176807</v>
       </c>
       <c r="N15">
-        <v>17.67496316667962</v>
+        <v>10.60024635595665</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.84162058445389</v>
+        <v>30.2524212246491</v>
       </c>
       <c r="C16">
-        <v>14.94562754827087</v>
+        <v>27.29550183525006</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.00289920259239</v>
+        <v>11.60653731358027</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.624557478432792</v>
+        <v>1.993876393905299</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.0280793828675</v>
+        <v>23.61859723420885</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.64788351194566</v>
+        <v>25.17511623458181</v>
       </c>
       <c r="N16">
-        <v>17.7198387108644</v>
+        <v>10.79277211161126</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.58271070347613</v>
+        <v>29.53856175507226</v>
       </c>
       <c r="C17">
-        <v>14.67679402321719</v>
+        <v>26.6310327793567</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.955253297751357</v>
+        <v>11.31915340230566</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.626237103555924</v>
+        <v>1.999810716868209</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.98047010516683</v>
+        <v>23.23248492304502</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.50616774024779</v>
+        <v>24.58089634413195</v>
       </c>
       <c r="N17">
-        <v>17.74790411837697</v>
+        <v>10.91216592371981</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.43249833450491</v>
+        <v>29.12407319797918</v>
       </c>
       <c r="C18">
-        <v>14.52026795214297</v>
+        <v>26.24580706060568</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.928047022972002</v>
+        <v>11.15266081713682</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.627215550652652</v>
+        <v>2.003218035146079</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.9537937979677</v>
+        <v>23.01309807159425</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.42466013684267</v>
+        <v>24.23615515768152</v>
       </c>
       <c r="N18">
-        <v>17.76424352121046</v>
+        <v>10.98128317295956</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.3814215360375</v>
+        <v>28.98304888574047</v>
       </c>
       <c r="C19">
-        <v>14.46694758147562</v>
+        <v>26.11483586741391</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.918870267420141</v>
+        <v>11.09607549340488</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.627548964935105</v>
+        <v>2.004370940560062</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.94488341695276</v>
+        <v>22.93926886575327</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.39706664923523</v>
+        <v>24.11890788000776</v>
       </c>
       <c r="N19">
-        <v>17.7698095890717</v>
+        <v>11.00475932097491</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.61040718304453</v>
+        <v>29.61495248607869</v>
       </c>
       <c r="C20">
-        <v>14.70560917162223</v>
+        <v>26.70207696476152</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.960304931359424</v>
+        <v>11.3498678074079</v>
       </c>
       <c r="F20">
-        <v>20.2495528364879</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.626057025214379</v>
+        <v>1.999179678182316</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.98546506049783</v>
+        <v>23.27330555986017</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.52125396231816</v>
+        <v>24.64445492105699</v>
       </c>
       <c r="N20">
-        <v>17.74489612829501</v>
+        <v>10.89940963636453</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.36396737650603</v>
+        <v>31.69282939281371</v>
       </c>
       <c r="C21">
-        <v>15.48457149812819</v>
+        <v>28.64023671769869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.10183418387652</v>
+        <v>12.18892633092776</v>
       </c>
       <c r="F21">
-        <v>21.46857628470567</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.621191813200313</v>
+        <v>1.981645422158588</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.13024155845835</v>
+        <v>24.42876597985116</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.93833233133569</v>
+        <v>26.37603741244481</v>
       </c>
       <c r="N21">
-        <v>17.66354276981352</v>
+        <v>10.5509636004816</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.84395677884638</v>
+        <v>33.02032037378099</v>
       </c>
       <c r="C22">
-        <v>15.97615988710617</v>
+        <v>29.88445001264204</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.19592838863483</v>
+        <v>12.72872054855953</v>
       </c>
       <c r="F22">
-        <v>22.22866616901555</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.618121349676367</v>
+        <v>1.970064897159693</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.23108637616426</v>
+        <v>25.21103414051525</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.21030127448633</v>
+        <v>27.4851784092641</v>
       </c>
       <c r="N22">
-        <v>17.61212629172613</v>
+        <v>10.32787560842647</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.58896538599786</v>
+        <v>32.31438355044009</v>
       </c>
       <c r="C23">
-        <v>15.71541716344802</v>
+        <v>29.22220115061359</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.14557074975465</v>
+        <v>12.44129560956821</v>
       </c>
       <c r="F23">
-        <v>21.82633154475864</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.619750163947109</v>
+        <v>1.976260354709134</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.17669796714421</v>
+        <v>24.79086636355789</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.06523322821621</v>
+        <v>26.89506755320301</v>
       </c>
       <c r="N23">
-        <v>17.63940790170263</v>
+        <v>10.44647560355892</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.59788983441378</v>
+        <v>29.58042899206657</v>
       </c>
       <c r="C24">
-        <v>14.69258797247464</v>
+        <v>26.66996794573389</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.95802050660906</v>
+        <v>11.33598580755843</v>
       </c>
       <c r="F24">
-        <v>20.22900810905294</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.626138398727343</v>
+        <v>1.999464983785143</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.98320467597248</v>
+        <v>23.25484250061471</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.51443357780439</v>
+        <v>24.61572983453989</v>
       </c>
       <c r="N24">
-        <v>17.74625540448077</v>
+        <v>10.90517527726519</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.48015252221285</v>
+        <v>26.48082035131841</v>
       </c>
       <c r="C25">
-        <v>13.51718590269832</v>
+        <v>23.79892765666727</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.763396412722928</v>
+        <v>10.23097593842833</v>
       </c>
       <c r="F25">
-        <v>18.34778573295697</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.633502687565202</v>
+        <v>2.024293678667104</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>23.80155320932546</v>
+        <v>21.70014463300587</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.92085988271535</v>
+        <v>22.04234823892762</v>
       </c>
       <c r="N25">
-        <v>17.86903778332354</v>
+        <v>11.41688960891046</v>
       </c>
       <c r="O25">
         <v>0</v>
